--- a/data/compare.xlsx
+++ b/data/compare.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoshida\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kosei/Documents/Study/saxon/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC576A2-8911-7547-9D1D-3B602BD8410E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18030" windowHeight="9285"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18100" windowHeight="12100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -70,8 +71,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,7 +103,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -172,13 +173,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -201,6 +217,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -482,20 +501,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="14" max="14" width="15.25" customWidth="1"/>
+    <col min="14" max="14" width="15.1640625" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -506,7 +525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" ht="15" thickBot="1">
       <c r="B3">
         <v>30</v>
       </c>
@@ -517,7 +536,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:15">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -552,7 +571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:15">
       <c r="B5">
         <v>0</v>
       </c>
@@ -587,7 +606,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15" ht="15" thickBot="1">
       <c r="B6">
         <v>250000</v>
       </c>
@@ -622,7 +641,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:15">
       <c r="B7">
         <v>60</v>
       </c>
@@ -633,7 +652,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:15">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -662,7 +681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:15">
       <c r="B9">
         <v>0</v>
       </c>
@@ -691,7 +710,7 @@
         <v>60250</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:15">
       <c r="B10">
         <v>250000</v>
       </c>
@@ -720,7 +739,7 @@
         <v>60905</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:15">
       <c r="B11">
         <v>90</v>
       </c>
@@ -731,7 +750,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:15">
       <c r="B12" t="s">
         <v>1</v>
       </c>
@@ -760,7 +779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:15">
       <c r="B13">
         <v>0</v>
       </c>
@@ -789,7 +808,7 @@
         <v>71941</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:15">
       <c r="B14">
         <v>250000</v>
       </c>
@@ -818,7 +837,7 @@
         <v>73073</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:15">
       <c r="B15" s="7">
         <v>120</v>
       </c>
@@ -837,7 +856,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:15">
       <c r="B16" s="7" t="s">
         <v>1</v>
       </c>
@@ -868,7 +887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12">
       <c r="B17" s="7">
         <v>0</v>
       </c>
@@ -899,7 +918,7 @@
         <v>72152</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12">
       <c r="B18" s="7">
         <v>250000</v>
       </c>
@@ -930,7 +949,7 @@
         <v>73328</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:12">
       <c r="C22" t="s">
         <v>6</v>
       </c>
@@ -945,6 +964,28 @@
       <c r="L22">
         <f>SUM(L17:L18)</f>
         <v>145480</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="D27" s="8">
+        <v>75713</v>
+      </c>
+      <c r="E27" s="8">
+        <v>61570</v>
+      </c>
+      <c r="F27" s="8">
+        <v>72152</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="D28" s="8">
+        <v>69758</v>
+      </c>
+      <c r="E28" s="8">
+        <v>83984</v>
+      </c>
+      <c r="F28" s="8">
+        <v>73328</v>
       </c>
     </row>
   </sheetData>
